--- a/Data_Pfalz/NG_DWA_Sprint-III_18.xlsx
+++ b/Data_Pfalz/NG_DWA_Sprint-III_18.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWASprint2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA_Sprint\Data_Pfalz\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A40D7CA-19FA-4CB1-84DA-D0C70924155C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="353">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -1088,7 +1089,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1141,7 +1142,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1452,23 +1453,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1529,7 +1530,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1556,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -1575,7 +1582,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1598,7 +1608,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1634,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1647,7 +1663,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1670,7 +1689,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1693,7 +1715,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +1741,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1742,7 +1770,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +1796,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1822,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1811,7 +1848,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -1834,7 +1874,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1857,7 +1900,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1880,7 +1926,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +1955,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -1932,7 +1984,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +2010,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -1981,7 +2039,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
@@ -2007,7 +2068,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -2033,7 +2097,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -2056,7 +2123,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -2082,7 +2152,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
@@ -2105,7 +2178,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -2131,7 +2207,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
@@ -2154,7 +2233,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
@@ -2177,7 +2259,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
@@ -2203,7 +2288,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
@@ -2226,7 +2314,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
@@ -2249,7 +2340,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
@@ -2272,7 +2366,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -2298,7 +2395,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -2321,7 +2421,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
@@ -2347,7 +2450,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
@@ -2370,7 +2476,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
@@ -2396,7 +2505,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
@@ -2419,7 +2531,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
@@ -2445,7 +2560,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
@@ -2471,7 +2589,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
@@ -2497,7 +2618,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -2520,7 +2644,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
@@ -2543,7 +2670,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
@@ -2566,7 +2696,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
@@ -2589,7 +2722,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
@@ -2612,7 +2748,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
@@ -2641,7 +2780,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
@@ -2664,7 +2806,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
@@ -2690,7 +2835,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
@@ -2713,7 +2861,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
@@ -2736,7 +2887,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
@@ -2759,7 +2913,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
@@ -2782,7 +2939,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
@@ -2808,7 +2968,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
@@ -2834,7 +2997,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
@@ -2860,7 +3026,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
@@ -2883,7 +3052,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
@@ -2906,7 +3078,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
@@ -2929,7 +3104,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
@@ -2952,7 +3130,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
@@ -2975,7 +3156,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
@@ -2998,7 +3182,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
@@ -3021,7 +3208,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
@@ -3047,7 +3237,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
@@ -3070,7 +3263,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
@@ -3093,7 +3289,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
@@ -3122,7 +3321,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
@@ -3148,7 +3350,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +3376,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
@@ -3197,7 +3405,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
@@ -3220,7 +3431,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
@@ -3243,7 +3457,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
@@ -3266,7 +3483,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
@@ -3289,7 +3509,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
@@ -3312,7 +3535,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
@@ -3338,7 +3564,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
@@ -3361,7 +3590,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
@@ -3384,7 +3616,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
@@ -3410,7 +3645,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
@@ -3436,7 +3674,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
@@ -3459,7 +3700,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
@@ -3482,7 +3726,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
@@ -3508,7 +3755,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
@@ -3531,7 +3781,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
@@ -3554,7 +3807,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
@@ -3577,7 +3833,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
@@ -3600,7 +3859,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
@@ -3623,7 +3885,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
@@ -3646,7 +3911,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
@@ -3669,7 +3937,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
@@ -3692,7 +3963,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
@@ -3715,7 +3989,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
@@ -3738,7 +4015,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
       <c r="B95">
         <v>999</v>
       </c>
@@ -3761,7 +4041,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
@@ -3790,7 +4073,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
@@ -3813,7 +4099,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
@@ -3836,7 +4125,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
@@ -3859,7 +4151,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
@@ -3882,7 +4177,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
@@ -3905,7 +4203,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
@@ -3928,7 +4229,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
@@ -3951,7 +4255,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
@@ -3974,7 +4281,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
@@ -3997,7 +4307,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
@@ -4023,7 +4336,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
@@ -4046,7 +4362,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
@@ -4069,7 +4388,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
@@ -4092,7 +4414,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
@@ -4115,7 +4440,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
       <c r="B111" t="s">
         <v>15</v>
       </c>
@@ -4138,7 +4466,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
@@ -4161,7 +4492,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
       <c r="B113" t="s">
         <v>15</v>
       </c>
@@ -4184,7 +4518,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
       <c r="B114" t="s">
         <v>15</v>
       </c>
@@ -4207,7 +4544,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
       <c r="B115" t="s">
         <v>15</v>
       </c>
@@ -4230,7 +4570,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
@@ -4253,7 +4596,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
@@ -4279,7 +4625,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
@@ -4302,7 +4651,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
@@ -4325,7 +4677,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
       <c r="B120" t="s">
         <v>15</v>
       </c>
@@ -4351,7 +4706,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
       <c r="B121" t="s">
         <v>15</v>
       </c>
@@ -4374,7 +4732,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
       <c r="B122" t="s">
         <v>15</v>
       </c>
@@ -4397,7 +4758,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
@@ -4420,7 +4784,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
@@ -4443,7 +4810,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
       <c r="B125" t="s">
         <v>15</v>
       </c>
@@ -4466,7 +4836,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
       <c r="B126" t="s">
         <v>15</v>
       </c>
@@ -4489,7 +4862,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
       <c r="B127" t="s">
         <v>15</v>
       </c>
@@ -4515,7 +4891,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
       <c r="B128" t="s">
         <v>15</v>
       </c>
@@ -4541,7 +4920,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
       <c r="B129" t="s">
         <v>15</v>
       </c>
@@ -4564,7 +4946,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
       <c r="B130" t="s">
         <v>15</v>
       </c>
@@ -4587,7 +4972,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
@@ -4610,7 +4998,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
       <c r="B132" t="s">
         <v>15</v>
       </c>
@@ -4636,7 +5027,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
       <c r="B133" t="s">
         <v>15</v>
       </c>
@@ -4659,7 +5053,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
@@ -4682,7 +5079,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
       <c r="B135" t="s">
         <v>15</v>
       </c>
@@ -4705,7 +5105,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
       <c r="B136" t="s">
         <v>15</v>
       </c>
@@ -4728,7 +5131,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
       <c r="B137" t="s">
         <v>15</v>
       </c>
@@ -4751,7 +5157,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
       <c r="B138" t="s">
         <v>15</v>
       </c>
@@ -4777,7 +5186,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
       <c r="B139" t="s">
         <v>15</v>
       </c>
@@ -4800,7 +5212,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
@@ -4823,7 +5238,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
       <c r="B141" t="s">
         <v>15</v>
       </c>
@@ -4846,7 +5264,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
       <c r="B142" t="s">
         <v>15</v>
       </c>
@@ -4869,7 +5290,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
       <c r="B143" t="s">
         <v>15</v>
       </c>
@@ -4892,7 +5316,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
       <c r="B144" t="s">
         <v>15</v>
       </c>
@@ -4918,7 +5345,10 @@
         <v>317</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
       <c r="B145" t="s">
         <v>15</v>
       </c>
@@ -4944,7 +5374,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
       <c r="B146" t="s">
         <v>15</v>
       </c>
@@ -4967,7 +5400,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
       <c r="B147" t="s">
         <v>15</v>
       </c>
@@ -4993,7 +5429,10 @@
         <v>327</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
       <c r="B148" t="s">
         <v>15</v>
       </c>
@@ -5019,7 +5458,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
       <c r="B149" t="s">
         <v>15</v>
       </c>
@@ -5042,7 +5484,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
       <c r="B150" t="s">
         <v>15</v>
       </c>
@@ -5065,7 +5510,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
       <c r="B151" t="s">
         <v>15</v>
       </c>
@@ -5088,7 +5536,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
       <c r="B152" t="s">
         <v>15</v>
       </c>
@@ -5114,7 +5565,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
       <c r="B153" t="s">
         <v>15</v>
       </c>
@@ -5137,7 +5591,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
       <c r="B154" t="s">
         <v>15</v>
       </c>
@@ -5163,7 +5620,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
       <c r="B155" t="s">
         <v>15</v>
       </c>
@@ -5186,7 +5646,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
       <c r="B156" t="s">
         <v>15</v>
       </c>
@@ -5209,7 +5672,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
       <c r="B157" t="s">
         <v>15</v>
       </c>
@@ -5232,7 +5698,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
       <c r="B158" t="s">
         <v>15</v>
       </c>
